--- a/tut05/output/0401ME27.xlsx
+++ b/tut05/output/0401ME27.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.795918367346939</v>
+        <v>7.8</v>
       </c>
       <c r="C6" t="n">
         <v>7.75</v>
       </c>
       <c r="D6" t="n">
-        <v>8.914893617021276</v>
+        <v>8.91</v>
       </c>
       <c r="E6" t="n">
-        <v>8.448979591836734</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.043478260869565</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.652173913043478</v>
+        <v>8.65</v>
       </c>
       <c r="H6" t="n">
         <v>9.199999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.795918367346939</v>
+        <v>7.8</v>
       </c>
       <c r="C8" t="n">
-        <v>7.774193548387097</v>
+        <v>7.77</v>
       </c>
       <c r="D8" t="n">
-        <v>8.157142857142857</v>
+        <v>8.16</v>
       </c>
       <c r="E8" t="n">
-        <v>8.232804232804233</v>
+        <v>8.23</v>
       </c>
       <c r="F8" t="n">
-        <v>8.391489361702128</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.434163701067616</v>
+        <v>8.43</v>
       </c>
       <c r="H8" t="n">
-        <v>8.529595015576325</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.565096952908588</v>
+        <v>8.57</v>
       </c>
     </row>
   </sheetData>
